--- a/sim_tacc_James/development_log.xlsx
+++ b/sim_tacc_James/development_log.xlsx
@@ -459,7 +459,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView zoomScale="158" zoomScaleNormal="158" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -518,14 +518,14 @@
         <v>2</v>
       </c>
       <c r="G2" s="2">
-        <v>3.0543981481481481E-2</v>
+        <v>3.1354166666666662E-2</v>
       </c>
       <c r="H2">
-        <v>2063.1010000000001</v>
+        <v>2166.087</v>
       </c>
       <c r="I2">
         <f>H2/F2</f>
-        <v>1031.5505000000001</v>
+        <v>1083.0435</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -539,7 +539,7 @@
       </c>
       <c r="H3">
         <f>I2 *F3</f>
-        <v>51577.525000000001</v>
+        <v>54152.175000000003</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -672,7 +672,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -723,15 +723,15 @@
       </c>
       <c r="E2" s="5">
         <f t="shared" ref="E2:E7" si="1">D2*$C$17</f>
-        <v>229.23344444444447</v>
+        <v>240.6763333333333</v>
       </c>
       <c r="F2" s="5">
         <f>E2*A2*0.8</f>
-        <v>183.3867555555556</v>
+        <v>192.54106666666667</v>
       </c>
       <c r="G2" s="5">
         <f>F2*$C$21</f>
-        <v>1467.0940444444448</v>
+        <v>1540.3285333333333</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -752,15 +752,15 @@
       </c>
       <c r="E3" s="5">
         <f t="shared" si="1"/>
-        <v>114.61672222222224</v>
+        <v>120.33816666666665</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ref="F3:F7" si="4">E3*A3*0.8</f>
-        <v>183.3867555555556</v>
+        <v>192.54106666666667</v>
       </c>
       <c r="G3" s="5">
         <f t="shared" ref="G3:G10" si="5">F3*$C$21</f>
-        <v>1467.0940444444448</v>
+        <v>1540.3285333333333</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -781,15 +781,15 @@
       </c>
       <c r="E4" s="5">
         <f t="shared" si="1"/>
-        <v>85.962541666666681</v>
+        <v>90.253624999999985</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" si="4"/>
-        <v>206.31010000000006</v>
+        <v>216.60869999999997</v>
       </c>
       <c r="G4" s="5">
         <f t="shared" si="5"/>
-        <v>1650.4808000000005</v>
+        <v>1732.8695999999998</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -810,15 +810,15 @@
       </c>
       <c r="E5" s="5">
         <f t="shared" si="1"/>
-        <v>57.308361111111118</v>
+        <v>60.169083333333326</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" si="4"/>
-        <v>183.3867555555556</v>
+        <v>192.54106666666667</v>
       </c>
       <c r="G5" s="5">
         <f t="shared" si="5"/>
-        <v>1467.0940444444448</v>
+        <v>1540.3285333333333</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -839,15 +839,15 @@
       </c>
       <c r="E6" s="5">
         <f t="shared" si="1"/>
-        <v>57.308361111111118</v>
+        <v>60.169083333333326</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" si="4"/>
-        <v>229.23344444444447</v>
+        <v>240.6763333333333</v>
       </c>
       <c r="G6" s="5">
         <f t="shared" si="5"/>
-        <v>1833.8675555555558</v>
+        <v>1925.4106666666664</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -868,15 +868,15 @@
       </c>
       <c r="E7" s="5">
         <f t="shared" si="1"/>
-        <v>42.98127083333334</v>
+        <v>45.126812499999993</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" si="4"/>
-        <v>206.31010000000006</v>
+        <v>216.60869999999997</v>
       </c>
       <c r="G7" s="5">
         <f t="shared" si="5"/>
-        <v>1650.4808000000005</v>
+        <v>1732.8695999999998</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -897,15 +897,15 @@
       </c>
       <c r="E8" s="5">
         <f t="shared" ref="E8:E10" si="9">D8*$C$17</f>
-        <v>42.98127083333334</v>
+        <v>45.126812499999993</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ref="F8:F10" si="10">E8*A8*0.8</f>
-        <v>240.69511666666673</v>
+        <v>252.71015</v>
       </c>
       <c r="G8" s="5">
         <f t="shared" si="5"/>
-        <v>1925.5609333333339</v>
+        <v>2021.6812</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -926,15 +926,15 @@
       </c>
       <c r="E9" s="5">
         <f t="shared" si="9"/>
-        <v>28.654180555555559</v>
+        <v>30.084541666666663</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" si="10"/>
-        <v>183.3867555555556</v>
+        <v>192.54106666666667</v>
       </c>
       <c r="G9" s="5">
         <f t="shared" si="5"/>
-        <v>1467.0940444444448</v>
+        <v>1540.3285333333333</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -955,15 +955,15 @@
       </c>
       <c r="E10" s="5">
         <f t="shared" si="9"/>
-        <v>28.654180555555559</v>
+        <v>30.084541666666663</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" si="10"/>
-        <v>206.31010000000003</v>
+        <v>216.60869999999997</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" si="5"/>
-        <v>1650.4808000000003</v>
+        <v>1732.8695999999998</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -989,7 +989,7 @@
       </c>
       <c r="C15">
         <f>tacc!I2/60^2</f>
-        <v>0.28654180555555558</v>
+        <v>0.30084541666666664</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1006,7 +1006,7 @@
       </c>
       <c r="C17">
         <f>C16*C15</f>
-        <v>14.32709027777778</v>
+        <v>15.042270833333331</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">

--- a/sim_tacc_James/development_log.xlsx
+++ b/sim_tacc_James/development_log.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>date</t>
   </si>
@@ -36,24 +36,15 @@
     <t>iterations</t>
   </si>
   <si>
-    <t>tacc_time</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
     <t>n</t>
   </si>
   <si>
-    <t>time_elapsed</t>
-  </si>
-  <si>
     <t>seed_overall</t>
   </si>
   <si>
-    <t xml:space="preserve">set.seed(20201106) </t>
-  </si>
-  <si>
     <t>max n</t>
   </si>
   <si>
@@ -66,12 +57,6 @@
     <t>Max hours per core</t>
   </si>
   <si>
-    <t>Batches</t>
-  </si>
-  <si>
-    <t>Total conditions</t>
-  </si>
-  <si>
     <t>Time per replication</t>
   </si>
   <si>
@@ -84,9 +69,6 @@
     <t>Total reps</t>
   </si>
   <si>
-    <t>time per iteration</t>
-  </si>
-  <si>
     <t>SU per job</t>
   </si>
   <si>
@@ -97,6 +79,30 @@
   </si>
   <si>
     <t>Jobs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">set.seed(20201108) </t>
+  </si>
+  <si>
+    <t>batches</t>
+  </si>
+  <si>
+    <t>time per batch per iteration</t>
+  </si>
+  <si>
+    <t>tacc time</t>
+  </si>
+  <si>
+    <t>time elapsed</t>
+  </si>
+  <si>
+    <t>hours elapsed</t>
+  </si>
+  <si>
+    <t>Batches per job</t>
+  </si>
+  <si>
+    <t>Conditions per job</t>
   </si>
 </sst>
 </file>
@@ -104,7 +110,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -141,7 +147,7 @@
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,31 +462,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView zoomScale="158" zoomScaleNormal="158" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.375" customWidth="1"/>
-    <col min="8" max="9" width="18.625" customWidth="1"/>
-    <col min="10" max="10" width="68.875" customWidth="1"/>
+    <col min="9" max="9" width="18.625" customWidth="1"/>
+    <col min="10" max="10" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.625" customWidth="1"/>
+    <col min="12" max="12" width="68.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -489,21 +497,27 @@
         <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="I1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="J1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>44141</v>
+        <v>44159</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C2" s="3">
         <v>3</v>
@@ -517,80 +531,123 @@
       <c r="F2">
         <v>2</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
         <v>3.1354166666666662E-2</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>2166.087</v>
       </c>
-      <c r="I2">
-        <f>H2/F2</f>
+      <c r="J2" s="4">
+        <f>I2/60^2</f>
+        <v>0.60169083333333329</v>
+      </c>
+      <c r="K2">
+        <f>I2/F2/G2</f>
         <v>1083.0435</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>44159</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="3">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3">
+        <v>272</v>
+      </c>
       <c r="E3">
         <v>399</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>50</v>
       </c>
-      <c r="H3">
-        <f>I2 *F3</f>
-        <v>54152.175000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G3" s="3">
+        <v>3</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="J3" s="4">
+        <f>I3/60^2</f>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f>I3/F3/G3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>399</v>
+      </c>
+      <c r="F4">
+        <v>50</v>
+      </c>
+      <c r="I4">
+        <f>K4 *F4</f>
+        <v>54152.175000000003</v>
+      </c>
+      <c r="J4" s="4">
+        <f>I4/60^2</f>
+        <v>15.042270833333333</v>
+      </c>
+      <c r="K4">
+        <f>K2</f>
+        <v>1083.0435</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
@@ -661,6 +718,10 @@
     <row r="33" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -672,7 +733,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -684,25 +745,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -715,19 +776,19 @@
       </c>
       <c r="C2" s="4">
         <f t="shared" ref="C2:C7" si="0">$C$14/B2</f>
-        <v>15.529411764705882</v>
+        <v>7.7647058823529411</v>
       </c>
       <c r="D2">
         <f>ROUNDUP(C2,0)</f>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E2" s="5">
         <f t="shared" ref="E2:E7" si="1">D2*$C$17</f>
-        <v>240.6763333333333</v>
+        <v>120.33816666666665</v>
       </c>
       <c r="F2" s="5">
         <f>E2*A2*0.8</f>
-        <v>192.54106666666667</v>
+        <v>96.270533333333333</v>
       </c>
       <c r="G2" s="5">
         <f>F2*$C$21</f>
@@ -744,19 +805,19 @@
       </c>
       <c r="C3" s="4">
         <f t="shared" si="0"/>
-        <v>7.7647058823529411</v>
+        <v>3.8823529411764706</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D7" si="3">ROUNDUP(C3,0)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E3" s="5">
         <f t="shared" si="1"/>
-        <v>120.33816666666665</v>
+        <v>60.169083333333326</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ref="F3:F7" si="4">E3*A3*0.8</f>
-        <v>192.54106666666667</v>
+        <v>96.270533333333333</v>
       </c>
       <c r="G3" s="5">
         <f t="shared" ref="G3:G10" si="5">F3*$C$21</f>
@@ -773,19 +834,19 @@
       </c>
       <c r="C4" s="4">
         <f t="shared" si="0"/>
-        <v>5.1764705882352944</v>
+        <v>2.5882352941176472</v>
       </c>
       <c r="D4">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" si="1"/>
-        <v>90.253624999999985</v>
+        <v>45.126812499999993</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" si="4"/>
-        <v>216.60869999999997</v>
+        <v>108.30434999999999</v>
       </c>
       <c r="G4" s="5">
         <f t="shared" si="5"/>
@@ -802,19 +863,19 @@
       </c>
       <c r="C5" s="4">
         <f t="shared" si="0"/>
-        <v>3.8823529411764706</v>
+        <v>1.9411764705882353</v>
       </c>
       <c r="D5">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" si="1"/>
-        <v>60.169083333333326</v>
+        <v>30.084541666666663</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" si="4"/>
-        <v>192.54106666666667</v>
+        <v>96.270533333333333</v>
       </c>
       <c r="G5" s="5">
         <f t="shared" si="5"/>
@@ -831,19 +892,19 @@
       </c>
       <c r="C6" s="4">
         <f t="shared" si="0"/>
-        <v>3.1058823529411765</v>
+        <v>1.5529411764705883</v>
       </c>
       <c r="D6">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" si="1"/>
-        <v>60.169083333333326</v>
+        <v>30.084541666666663</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" si="4"/>
-        <v>240.6763333333333</v>
+        <v>120.33816666666665</v>
       </c>
       <c r="G6" s="5">
         <f t="shared" si="5"/>
@@ -860,23 +921,23 @@
       </c>
       <c r="C7" s="4">
         <f t="shared" si="0"/>
-        <v>2.5882352941176472</v>
+        <v>1.2941176470588236</v>
       </c>
       <c r="D7">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" si="1"/>
-        <v>45.126812499999993</v>
+        <v>30.084541666666663</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" si="4"/>
-        <v>216.60869999999997</v>
+        <v>144.40579999999997</v>
       </c>
       <c r="G7" s="5">
         <f t="shared" si="5"/>
-        <v>1732.8695999999998</v>
+        <v>2310.4927999999995</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -889,23 +950,23 @@
       </c>
       <c r="C8" s="4">
         <f t="shared" ref="C8:C10" si="7">$C$14/B8</f>
-        <v>2.2184873949579833</v>
+        <v>1.1092436974789917</v>
       </c>
       <c r="D8">
         <f t="shared" ref="D8:D10" si="8">ROUNDUP(C8,0)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ref="E8:E10" si="9">D8*$C$17</f>
-        <v>45.126812499999993</v>
+        <v>30.084541666666663</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ref="F8:F10" si="10">E8*A8*0.8</f>
-        <v>252.71015</v>
+        <v>168.47343333333333</v>
       </c>
       <c r="G8" s="5">
         <f t="shared" si="5"/>
-        <v>2021.6812</v>
+        <v>2695.5749333333333</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -918,19 +979,19 @@
       </c>
       <c r="C9" s="4">
         <f t="shared" si="7"/>
-        <v>1.9411764705882353</v>
+        <v>0.97058823529411764</v>
       </c>
       <c r="D9">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" si="9"/>
-        <v>30.084541666666663</v>
+        <v>15.042270833333331</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" si="10"/>
-        <v>192.54106666666667</v>
+        <v>96.270533333333333</v>
       </c>
       <c r="G9" s="5">
         <f t="shared" si="5"/>
@@ -947,19 +1008,19 @@
       </c>
       <c r="C10" s="4">
         <f t="shared" si="7"/>
-        <v>1.7254901960784315</v>
+        <v>0.86274509803921573</v>
       </c>
       <c r="D10">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" si="9"/>
-        <v>30.084541666666663</v>
+        <v>15.042270833333331</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" si="10"/>
-        <v>216.60869999999997</v>
+        <v>108.30434999999999</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" si="5"/>
@@ -968,33 +1029,37 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C14">
         <f>176*C13</f>
-        <v>1056</v>
+        <v>528</v>
+      </c>
+      <c r="D14">
+        <f>C14/2</f>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C15">
-        <f>tacc!I2/60^2</f>
+        <f>tacc!K4/60^2</f>
         <v>0.30084541666666664</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C16">
         <v>50</v>
@@ -1002,7 +1067,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C17">
         <f>C16*C15</f>
@@ -1011,16 +1076,16 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C19">
         <f>C16*C13</f>
-        <v>300</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C20">
         <v>2400</v>
@@ -1028,11 +1093,11 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C21">
         <f>C20/C19</f>
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/sim_tacc_James/development_log.xlsx
+++ b/sim_tacc_James/development_log.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>date</t>
   </si>
@@ -87,9 +87,6 @@
     <t>batches</t>
   </si>
   <si>
-    <t>time per batch per iteration</t>
-  </si>
-  <si>
     <t>tacc time</t>
   </si>
   <si>
@@ -103,6 +100,15 @@
   </si>
   <si>
     <t>Conditions per job</t>
+  </si>
+  <si>
+    <t>time per iteration</t>
+  </si>
+  <si>
+    <t>Time per iteration</t>
+  </si>
+  <si>
+    <t>Overhead</t>
   </si>
 </sst>
 </file>
@@ -141,10 +147,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -462,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView zoomScale="158" zoomScaleNormal="158" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -500,29 +505,29 @@
         <v>19</v>
       </c>
       <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" t="s">
-        <v>23</v>
-      </c>
       <c r="K1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44159</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>3</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>204</v>
       </c>
       <c r="E2">
@@ -531,21 +536,22 @@
       <c r="F2">
         <v>2</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <v>1</v>
       </c>
-      <c r="H2" s="2">
-        <v>3.1354166666666662E-2</v>
+      <c r="H2" s="3">
+        <f>0+45/60+9/60^2</f>
+        <v>0.75249999999999995</v>
       </c>
       <c r="I2">
         <v>2166.087</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="3">
         <f>I2/60^2</f>
         <v>0.60169083333333329</v>
       </c>
       <c r="K2">
-        <f>I2/F2/G2</f>
+        <f>I2/F2/ROUNDUP(176*G2/D2,0)</f>
         <v>1083.0435</v>
       </c>
     </row>
@@ -553,175 +559,228 @@
       <c r="A3" s="1">
         <v>44159</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>4</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>272</v>
       </c>
       <c r="E3">
         <v>399</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>50</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>3</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="J3" s="4">
+      <c r="H3" s="3">
+        <f>18+48/60+42/60^2</f>
+        <v>18.811666666666667</v>
+      </c>
+      <c r="I3" s="2">
+        <v>66999.48</v>
+      </c>
+      <c r="J3" s="3">
         <f>I3/60^2</f>
-        <v>0</v>
+        <v>18.610966666666666</v>
       </c>
       <c r="K3">
-        <f>I3/F3/G3</f>
-        <v>0</v>
+        <f>I3/F3/ROUNDUP(176*G3/D3,0)</f>
+        <v>669.99479999999994</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="A4" s="1">
+        <v>44160</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2">
+        <v>272</v>
+      </c>
       <c r="E4">
         <v>399</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>50</v>
       </c>
-      <c r="I4">
-        <f>K4 *F4</f>
-        <v>54152.175000000003</v>
-      </c>
-      <c r="J4" s="4">
+      <c r="G4" s="2">
+        <v>3</v>
+      </c>
+      <c r="J4" s="3">
         <f>I4/60^2</f>
-        <v>15.042270833333333</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <f>K2</f>
-        <v>1083.0435</v>
+        <f>I4/F4/ROUNDUP(176*G4/D4,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="A5" s="1">
+        <v>44161</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2">
+        <v>272</v>
+      </c>
+      <c r="E5">
+        <v>399</v>
+      </c>
+      <c r="F5" s="2">
+        <v>50</v>
+      </c>
+      <c r="G5" s="2">
+        <v>6</v>
+      </c>
+      <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7">
+        <f>K3</f>
+        <v>669.99479999999994</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="3">
+        <f>H3-J3</f>
+        <v>0.20070000000000121</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
     </row>
     <row r="27" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
     </row>
     <row r="29" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
     </row>
     <row r="30" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
     </row>
     <row r="31" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
     </row>
     <row r="32" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -730,10 +789,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -774,7 +833,7 @@
         <f>A2*68</f>
         <v>68</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <f t="shared" ref="C2:C7" si="0">$C$14/B2</f>
         <v>7.7647058823529411</v>
       </c>
@@ -782,17 +841,17 @@
         <f>ROUNDUP(C2,0)</f>
         <v>8</v>
       </c>
-      <c r="E2" s="5">
-        <f t="shared" ref="E2:E7" si="1">D2*$C$17</f>
-        <v>120.33816666666665</v>
-      </c>
-      <c r="F2" s="5">
+      <c r="E2" s="3">
+        <f>D2*$C$17+$C$18</f>
+        <v>74.644566666666663</v>
+      </c>
+      <c r="F2" s="4">
         <f>E2*A2*0.8</f>
-        <v>96.270533333333333</v>
-      </c>
-      <c r="G2" s="5">
-        <f>F2*$C$21</f>
-        <v>1540.3285333333333</v>
+        <v>59.715653333333336</v>
+      </c>
+      <c r="G2" s="4">
+        <f t="shared" ref="G2:G10" si="1">F2*$C$24</f>
+        <v>955.45045333333337</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -803,7 +862,7 @@
         <f t="shared" ref="B3:B7" si="2">A3*68</f>
         <v>136</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <f t="shared" si="0"/>
         <v>3.8823529411764706</v>
       </c>
@@ -811,17 +870,17 @@
         <f t="shared" ref="D3:D7" si="3">ROUNDUP(C3,0)</f>
         <v>4</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="3">
+        <f t="shared" ref="E3:E10" si="4">D3*$C$17+$C$18</f>
+        <v>37.422633333333337</v>
+      </c>
+      <c r="F3" s="4">
+        <f t="shared" ref="F3:F7" si="5">E3*A3*0.8</f>
+        <v>59.87621333333334</v>
+      </c>
+      <c r="G3" s="4">
         <f t="shared" si="1"/>
-        <v>60.169083333333326</v>
-      </c>
-      <c r="F3" s="5">
-        <f t="shared" ref="F3:F7" si="4">E3*A3*0.8</f>
-        <v>96.270533333333333</v>
-      </c>
-      <c r="G3" s="5">
-        <f t="shared" ref="G3:G10" si="5">F3*$C$21</f>
-        <v>1540.3285333333333</v>
+        <v>958.01941333333343</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -832,7 +891,7 @@
         <f t="shared" si="2"/>
         <v>204</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <f t="shared" si="0"/>
         <v>2.5882352941176472</v>
       </c>
@@ -840,17 +899,17 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
+        <f t="shared" si="4"/>
+        <v>28.117149999999999</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" si="5"/>
+        <v>67.481160000000003</v>
+      </c>
+      <c r="G4" s="4">
         <f t="shared" si="1"/>
-        <v>45.126812499999993</v>
-      </c>
-      <c r="F4" s="5">
-        <f t="shared" si="4"/>
-        <v>108.30434999999999</v>
-      </c>
-      <c r="G4" s="5">
-        <f t="shared" si="5"/>
-        <v>1732.8695999999998</v>
+        <v>1079.69856</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -861,7 +920,7 @@
         <f t="shared" si="2"/>
         <v>272</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <f t="shared" si="0"/>
         <v>1.9411764705882353</v>
       </c>
@@ -869,17 +928,17 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="3">
+        <f t="shared" si="4"/>
+        <v>18.811666666666667</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" si="5"/>
+        <v>60.19733333333334</v>
+      </c>
+      <c r="G5" s="4">
         <f t="shared" si="1"/>
-        <v>30.084541666666663</v>
-      </c>
-      <c r="F5" s="5">
-        <f t="shared" si="4"/>
-        <v>96.270533333333333</v>
-      </c>
-      <c r="G5" s="5">
-        <f t="shared" si="5"/>
-        <v>1540.3285333333333</v>
+        <v>963.15733333333344</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -890,7 +949,7 @@
         <f t="shared" si="2"/>
         <v>340</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <f t="shared" si="0"/>
         <v>1.5529411764705883</v>
       </c>
@@ -898,17 +957,17 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="3">
+        <f t="shared" si="4"/>
+        <v>18.811666666666667</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" si="5"/>
+        <v>75.24666666666667</v>
+      </c>
+      <c r="G6" s="4">
         <f t="shared" si="1"/>
-        <v>30.084541666666663</v>
-      </c>
-      <c r="F6" s="5">
-        <f t="shared" si="4"/>
-        <v>120.33816666666665</v>
-      </c>
-      <c r="G6" s="5">
-        <f t="shared" si="5"/>
-        <v>1925.4106666666664</v>
+        <v>1203.9466666666667</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -919,7 +978,7 @@
         <f t="shared" si="2"/>
         <v>408</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <f t="shared" si="0"/>
         <v>1.2941176470588236</v>
       </c>
@@ -927,17 +986,17 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="3">
+        <f t="shared" si="4"/>
+        <v>18.811666666666667</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="5"/>
+        <v>90.296000000000006</v>
+      </c>
+      <c r="G7" s="4">
         <f t="shared" si="1"/>
-        <v>30.084541666666663</v>
-      </c>
-      <c r="F7" s="5">
-        <f t="shared" si="4"/>
-        <v>144.40579999999997</v>
-      </c>
-      <c r="G7" s="5">
-        <f t="shared" si="5"/>
-        <v>2310.4927999999995</v>
+        <v>1444.7360000000001</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -948,7 +1007,7 @@
         <f t="shared" ref="B8:B10" si="6">A8*68</f>
         <v>476</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <f t="shared" ref="C8:C10" si="7">$C$14/B8</f>
         <v>1.1092436974789917</v>
       </c>
@@ -956,17 +1015,17 @@
         <f t="shared" ref="D8:D10" si="8">ROUNDUP(C8,0)</f>
         <v>2</v>
       </c>
-      <c r="E8" s="5">
-        <f t="shared" ref="E8:E10" si="9">D8*$C$17</f>
-        <v>30.084541666666663</v>
-      </c>
-      <c r="F8" s="5">
-        <f t="shared" ref="F8:F10" si="10">E8*A8*0.8</f>
-        <v>168.47343333333333</v>
-      </c>
-      <c r="G8" s="5">
-        <f t="shared" si="5"/>
-        <v>2695.5749333333333</v>
+      <c r="E8" s="3">
+        <f t="shared" si="4"/>
+        <v>18.811666666666667</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" ref="F8:F10" si="9">E8*A8*0.8</f>
+        <v>105.34533333333334</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="1"/>
+        <v>1685.5253333333335</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -977,7 +1036,7 @@
         <f t="shared" si="6"/>
         <v>544</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <f t="shared" si="7"/>
         <v>0.97058823529411764</v>
       </c>
@@ -985,17 +1044,17 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="3">
+        <f t="shared" si="4"/>
+        <v>9.5061833333333343</v>
+      </c>
+      <c r="F9" s="4">
         <f t="shared" si="9"/>
-        <v>15.042270833333331</v>
-      </c>
-      <c r="F9" s="5">
-        <f t="shared" si="10"/>
-        <v>96.270533333333333</v>
-      </c>
-      <c r="G9" s="5">
-        <f t="shared" si="5"/>
-        <v>1540.3285333333333</v>
+        <v>60.839573333333341</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="1"/>
+        <v>973.43317333333346</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1006,7 +1065,7 @@
         <f t="shared" si="6"/>
         <v>612</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <f t="shared" si="7"/>
         <v>0.86274509803921573</v>
       </c>
@@ -1014,22 +1073,22 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="3">
+        <f t="shared" si="4"/>
+        <v>9.5061833333333343</v>
+      </c>
+      <c r="F10" s="4">
         <f t="shared" si="9"/>
-        <v>15.042270833333331</v>
-      </c>
-      <c r="F10" s="5">
-        <f t="shared" si="10"/>
-        <v>108.30434999999999</v>
-      </c>
-      <c r="G10" s="5">
-        <f t="shared" si="5"/>
-        <v>1732.8695999999998</v>
+        <v>68.444520000000011</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="1"/>
+        <v>1095.1123200000002</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -1037,7 +1096,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14">
         <f>176*C13</f>
@@ -1053,8 +1112,8 @@
         <v>10</v>
       </c>
       <c r="C15">
-        <f>tacc!K4/60^2</f>
-        <v>0.30084541666666664</v>
+        <f>tacc!K7/60^2</f>
+        <v>0.18610966666666665</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1071,32 +1130,41 @@
       </c>
       <c r="C17">
         <f>C16*C15</f>
-        <v>15.042270833333331</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+        <v>9.3054833333333331</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="3">
+        <f>tacc!K8</f>
+        <v>0.20070000000000121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>16</v>
       </c>
-      <c r="C19">
+      <c r="C22">
         <f>C16*C13</f>
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>13</v>
       </c>
-      <c r="C20">
+      <c r="C23">
         <v>2400</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>17</v>
       </c>
-      <c r="C21">
-        <f>C20/C19</f>
+      <c r="C24">
+        <f>C23/C22</f>
         <v>16</v>
       </c>
     </row>

--- a/sim_tacc_James/development_log.xlsx
+++ b/sim_tacc_James/development_log.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16005" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16005"/>
   </bookViews>
   <sheets>
     <sheet name="tacc" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>date</t>
   </si>
@@ -467,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView zoomScale="158" zoomScaleNormal="158" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="158" zoomScaleNormal="158" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -482,7 +482,7 @@
     <col min="12" max="12" width="68.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -516,8 +516,11 @@
       <c r="K1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44159</v>
       </c>
@@ -554,8 +557,12 @@
         <f>I2/F2/ROUNDUP(176*G2/D2,0)</f>
         <v>1083.0435</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="3">
+        <f>H2-J2</f>
+        <v>0.15080916666666666</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44159</v>
       </c>
@@ -592,8 +599,12 @@
         <f>I3/F3/ROUNDUP(176*G3/D3,0)</f>
         <v>669.99479999999994</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="3">
+        <f>H3-J3</f>
+        <v>0.20070000000000121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44160</v>
       </c>
@@ -615,16 +626,23 @@
       <c r="G4" s="2">
         <v>3</v>
       </c>
+      <c r="H4" s="3">
+        <f>18+47/60+2/60^2</f>
+        <v>18.783888888888889</v>
+      </c>
+      <c r="I4" s="2">
+        <v>66901.86</v>
+      </c>
       <c r="J4" s="3">
         <f>I4/60^2</f>
-        <v>0</v>
+        <v>18.583850000000002</v>
       </c>
       <c r="K4">
         <f>I4/F4/ROUNDUP(176*G4/D4,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>669.01859999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44161</v>
       </c>
@@ -648,11 +666,11 @@
       </c>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="J7" t="s">
@@ -663,46 +681,46 @@
         <v>669.99479999999994</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="J8" t="s">
         <v>27</v>
       </c>
       <c r="K8" s="3">
-        <f>H3-J3</f>
+        <f>L3</f>
         <v>0.20070000000000121</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
@@ -791,7 +809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
@@ -1138,7 +1156,7 @@
         <v>27</v>
       </c>
       <c r="C18" s="3">
-        <f>tacc!K8</f>
+        <f>tacc!L3</f>
         <v>0.20070000000000121</v>
       </c>
     </row>

--- a/sim_tacc_James/development_log.xlsx
+++ b/sim_tacc_James/development_log.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16005"/>
+    <workbookView xWindow="0" yWindow="470" windowWidth="28800" windowHeight="16010"/>
   </bookViews>
   <sheets>
     <sheet name="tacc" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>date</t>
   </si>
@@ -115,8 +115,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -147,12 +148,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,22 +469,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="158" zoomScaleNormal="158" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" zoomScale="158" zoomScaleNormal="158" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="19.375" customWidth="1"/>
-    <col min="9" max="9" width="18.625" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="9" max="9" width="18.58203125" customWidth="1"/>
     <col min="10" max="10" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.625" customWidth="1"/>
-    <col min="12" max="12" width="68.875" customWidth="1"/>
+    <col min="11" max="11" width="18.58203125" customWidth="1"/>
+    <col min="12" max="12" width="68.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -520,7 +522,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>44159</v>
       </c>
@@ -531,6 +533,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="2">
+        <f>68*C2</f>
         <v>204</v>
       </c>
       <c r="E2">
@@ -562,7 +565,7 @@
         <v>0.15080916666666666</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>44159</v>
       </c>
@@ -573,6 +576,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="2">
+        <f t="shared" ref="D3:D6" si="0">68*C3</f>
         <v>272</v>
       </c>
       <c r="E3">
@@ -604,7 +608,7 @@
         <v>0.20070000000000121</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>44160</v>
       </c>
@@ -615,6 +619,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="2">
+        <f t="shared" si="0"/>
         <v>272</v>
       </c>
       <c r="E4">
@@ -641,8 +646,12 @@
         <f>I4/F4/ROUNDUP(176*G4/D4,0)</f>
         <v>669.01859999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L4" s="3">
+        <f t="shared" ref="L4:L5" si="1">H4-J4</f>
+        <v>0.2000388888888871</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>44161</v>
       </c>
@@ -653,6 +662,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="2">
+        <f t="shared" si="0"/>
         <v>272</v>
       </c>
       <c r="E5">
@@ -664,141 +674,198 @@
       <c r="G5" s="2">
         <v>6</v>
       </c>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H5" s="3">
+        <f>30+38/60+16/60^2</f>
+        <v>30.637777777777778</v>
+      </c>
+      <c r="I5" s="2">
+        <v>109571.49</v>
+      </c>
+      <c r="J5" s="3">
+        <f>I5/60^2</f>
+        <v>30.436525000000003</v>
+      </c>
+      <c r="K5" s="5">
+        <f>I5/F5/ROUNDUP(176*G5/D5,0)</f>
+        <v>547.85744999999997</v>
+      </c>
+      <c r="L5" s="3">
+        <f t="shared" si="1"/>
+        <v>0.20125277777777484</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>44163</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>272</v>
+      </c>
+      <c r="E6">
+        <v>399</v>
+      </c>
+      <c r="F6" s="2">
+        <v>50</v>
+      </c>
+      <c r="G6" s="2">
+        <v>6</v>
+      </c>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="J7" t="s">
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="J9" t="s">
         <v>26</v>
       </c>
-      <c r="K7">
+      <c r="K9">
         <f>K3</f>
         <v>669.99479999999994</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="J8" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="J10" t="s">
         <v>27</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K10" s="3">
         <f>L3</f>
         <v>0.20070000000000121</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -813,14 +880,14 @@
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.58203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -843,7 +910,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -872,7 +939,7 @@
         <v>955.45045333333337</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -901,7 +968,7 @@
         <v>958.01941333333343</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -930,7 +997,7 @@
         <v>1079.69856</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -959,7 +1026,7 @@
         <v>963.15733333333344</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -988,7 +1055,7 @@
         <v>1203.9466666666667</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1017,7 +1084,7 @@
         <v>1444.7360000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1046,7 +1113,7 @@
         <v>1685.5253333333335</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1075,7 +1142,7 @@
         <v>973.43317333333346</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1104,7 +1171,7 @@
         <v>1095.1123200000002</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1112,7 +1179,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1125,16 +1192,16 @@
         <v>264</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>10</v>
       </c>
       <c r="C15">
-        <f>tacc!K7/60^2</f>
+        <f>tacc!K9/60^2</f>
         <v>0.18610966666666665</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -1142,7 +1209,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1151,7 +1218,7 @@
         <v>9.3054833333333331</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -1160,7 +1227,7 @@
         <v>0.20070000000000121</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -1169,7 +1236,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -1177,7 +1244,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>17</v>
       </c>

--- a/sim_tacc_James/development_log.xlsx
+++ b/sim_tacc_James/development_log.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="470" windowWidth="28800" windowHeight="16010"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16005" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="tacc" sheetId="1" r:id="rId1"/>
@@ -117,7 +117,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -154,7 +154,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,20 +471,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="158" zoomScaleNormal="158" workbookViewId="0">
+    <sheetView zoomScale="158" zoomScaleNormal="158" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
-    <col min="9" max="9" width="18.58203125" customWidth="1"/>
+    <col min="2" max="2" width="19.375" customWidth="1"/>
+    <col min="9" max="9" width="18.625" customWidth="1"/>
     <col min="10" max="10" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.58203125" customWidth="1"/>
-    <col min="12" max="12" width="68.83203125" customWidth="1"/>
+    <col min="11" max="11" width="18.625" customWidth="1"/>
+    <col min="12" max="12" width="68.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -522,7 +522,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44159</v>
       </c>
@@ -565,7 +565,7 @@
         <v>0.15080916666666666</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44159</v>
       </c>
@@ -608,7 +608,7 @@
         <v>0.20070000000000121</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44160</v>
       </c>
@@ -651,7 +651,7 @@
         <v>0.2000388888888871</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44161</v>
       </c>
@@ -694,7 +694,7 @@
         <v>0.20125277777777484</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44163</v>
       </c>
@@ -719,7 +719,7 @@
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -728,7 +728,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -737,7 +737,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="J9" t="s">
@@ -748,7 +748,7 @@
         <v>669.99479999999994</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="J10" t="s">
@@ -759,111 +759,111 @@
         <v>0.20070000000000121</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
     </row>
@@ -876,18 +876,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="16.58203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -910,7 +910,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -920,26 +920,26 @@
       </c>
       <c r="C2" s="3">
         <f t="shared" ref="C2:C7" si="0">$C$14/B2</f>
-        <v>7.7647058823529411</v>
+        <v>15.529411764705882</v>
       </c>
       <c r="D2">
         <f>ROUNDUP(C2,0)</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E2" s="3">
         <f>D2*$C$17+$C$18</f>
-        <v>74.644566666666663</v>
+        <v>149.08843333333334</v>
       </c>
       <c r="F2" s="4">
         <f>E2*A2*0.8</f>
-        <v>59.715653333333336</v>
+        <v>119.27074666666668</v>
       </c>
       <c r="G2" s="4">
         <f t="shared" ref="G2:G10" si="1">F2*$C$24</f>
-        <v>955.45045333333337</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+        <v>954.16597333333345</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -949,26 +949,26 @@
       </c>
       <c r="C3" s="3">
         <f t="shared" si="0"/>
-        <v>3.8823529411764706</v>
+        <v>7.7647058823529411</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D7" si="3">ROUNDUP(C3,0)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E3" s="3">
         <f t="shared" ref="E3:E10" si="4">D3*$C$17+$C$18</f>
-        <v>37.422633333333337</v>
+        <v>74.644566666666663</v>
       </c>
       <c r="F3" s="4">
         <f t="shared" ref="F3:F7" si="5">E3*A3*0.8</f>
-        <v>59.87621333333334</v>
+        <v>119.43130666666667</v>
       </c>
       <c r="G3" s="4">
         <f t="shared" si="1"/>
-        <v>958.01941333333343</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+        <v>955.45045333333337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -978,26 +978,26 @@
       </c>
       <c r="C4" s="3">
         <f t="shared" si="0"/>
-        <v>2.5882352941176472</v>
+        <v>5.1764705882352944</v>
       </c>
       <c r="D4">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E4" s="3">
         <f t="shared" si="4"/>
-        <v>28.117149999999999</v>
+        <v>56.033599999999993</v>
       </c>
       <c r="F4" s="4">
         <f t="shared" si="5"/>
-        <v>67.481160000000003</v>
+        <v>134.48063999999999</v>
       </c>
       <c r="G4" s="4">
         <f t="shared" si="1"/>
-        <v>1079.69856</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1075.84512</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1007,26 +1007,26 @@
       </c>
       <c r="C5" s="3">
         <f t="shared" si="0"/>
-        <v>1.9411764705882353</v>
+        <v>3.8823529411764706</v>
       </c>
       <c r="D5">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E5" s="3">
         <f t="shared" si="4"/>
-        <v>18.811666666666667</v>
+        <v>37.422633333333337</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" si="5"/>
-        <v>60.19733333333334</v>
+        <v>119.75242666666668</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" si="1"/>
-        <v>963.15733333333344</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+        <v>958.01941333333343</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1036,26 +1036,26 @@
       </c>
       <c r="C6" s="3">
         <f t="shared" si="0"/>
-        <v>1.5529411764705883</v>
+        <v>3.1058823529411765</v>
       </c>
       <c r="D6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E6" s="3">
         <f t="shared" si="4"/>
-        <v>18.811666666666667</v>
+        <v>37.422633333333337</v>
       </c>
       <c r="F6" s="4">
         <f t="shared" si="5"/>
-        <v>75.24666666666667</v>
+        <v>149.69053333333338</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="1"/>
-        <v>1203.9466666666667</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1197.524266666667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1065,26 +1065,26 @@
       </c>
       <c r="C7" s="3">
         <f t="shared" si="0"/>
-        <v>1.2941176470588236</v>
+        <v>2.5882352941176472</v>
       </c>
       <c r="D7">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" s="3">
         <f t="shared" si="4"/>
-        <v>18.811666666666667</v>
+        <v>28.117149999999999</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" si="5"/>
-        <v>90.296000000000006</v>
+        <v>134.96232000000001</v>
       </c>
       <c r="G7" s="4">
         <f t="shared" si="1"/>
-        <v>1444.7360000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1079.69856</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1094,26 +1094,26 @@
       </c>
       <c r="C8" s="3">
         <f t="shared" ref="C8:C10" si="7">$C$14/B8</f>
-        <v>1.1092436974789917</v>
+        <v>2.2184873949579833</v>
       </c>
       <c r="D8">
         <f t="shared" ref="D8:D10" si="8">ROUNDUP(C8,0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" s="3">
         <f t="shared" si="4"/>
-        <v>18.811666666666667</v>
+        <v>28.117149999999999</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" ref="F8:F10" si="9">E8*A8*0.8</f>
-        <v>105.34533333333334</v>
+        <v>157.45604</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="1"/>
-        <v>1685.5253333333335</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1259.64832</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1123,26 +1123,26 @@
       </c>
       <c r="C9" s="3">
         <f t="shared" si="7"/>
-        <v>0.97058823529411764</v>
+        <v>1.9411764705882353</v>
       </c>
       <c r="D9">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" s="3">
         <f t="shared" si="4"/>
-        <v>9.5061833333333343</v>
+        <v>18.811666666666667</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" si="9"/>
-        <v>60.839573333333341</v>
+        <v>120.39466666666668</v>
       </c>
       <c r="G9" s="4">
         <f t="shared" si="1"/>
-        <v>973.43317333333346</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+        <v>963.15733333333344</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1152,47 +1152,47 @@
       </c>
       <c r="C10" s="3">
         <f t="shared" si="7"/>
-        <v>0.86274509803921573</v>
+        <v>1.7254901960784315</v>
       </c>
       <c r="D10">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" s="3">
         <f t="shared" si="4"/>
-        <v>9.5061833333333343</v>
+        <v>18.811666666666667</v>
       </c>
       <c r="F10" s="4">
         <f t="shared" si="9"/>
-        <v>68.444520000000011</v>
+        <v>135.44400000000002</v>
       </c>
       <c r="G10" s="4">
         <f t="shared" si="1"/>
-        <v>1095.1123200000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1083.5520000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
       <c r="C13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
       <c r="C14">
         <f>176*C13</f>
-        <v>528</v>
+        <v>1056</v>
       </c>
       <c r="D14">
         <f>C14/2</f>
-        <v>264</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1201,7 +1201,7 @@
         <v>0.18610966666666665</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>9.3054833333333331</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -1227,16 +1227,16 @@
         <v>0.20070000000000121</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>16</v>
       </c>
       <c r="C22">
         <f>C16*C13</f>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -1244,13 +1244,13 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>17</v>
       </c>
       <c r="C24">
         <f>C23/C22</f>
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/sim_tacc_James/development_log.xlsx
+++ b/sim_tacc_James/development_log.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16005" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="19200" windowHeight="6435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="tacc" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>date</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>Overhead</t>
+  </si>
+  <si>
+    <t>Overhead per node</t>
   </si>
 </sst>
 </file>
@@ -469,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView zoomScale="158" zoomScaleNormal="158" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -481,10 +484,10 @@
     <col min="9" max="9" width="18.625" customWidth="1"/>
     <col min="10" max="10" width="12.25" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.625" customWidth="1"/>
-    <col min="12" max="12" width="68.875" customWidth="1"/>
+    <col min="12" max="12" width="8.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -521,8 +524,11 @@
       <c r="L1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44159</v>
       </c>
@@ -564,8 +570,12 @@
         <f>H2-J2</f>
         <v>0.15080916666666666</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" s="3">
+        <f>L2/C2</f>
+        <v>5.0269722222222223E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44159</v>
       </c>
@@ -576,7 +586,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D6" si="0">68*C3</f>
+        <f t="shared" ref="D3:D7" si="0">68*C3</f>
         <v>272</v>
       </c>
       <c r="E3">
@@ -607,8 +617,12 @@
         <f>H3-J3</f>
         <v>0.20070000000000121</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" s="3">
+        <f t="shared" ref="M3:M7" si="1">L3/C3</f>
+        <v>5.0175000000000303E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44160</v>
       </c>
@@ -647,11 +661,15 @@
         <v>669.01859999999999</v>
       </c>
       <c r="L4" s="3">
-        <f t="shared" ref="L4:L5" si="1">H4-J4</f>
+        <f t="shared" ref="L4:L7" si="2">H4-J4</f>
         <v>0.2000388888888871</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" s="3">
+        <f t="shared" si="1"/>
+        <v>5.0009722222221775E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44161</v>
       </c>
@@ -690,11 +708,15 @@
         <v>547.85744999999997</v>
       </c>
       <c r="L5" s="3">
+        <f t="shared" si="2"/>
+        <v>0.20125277777777484</v>
+      </c>
+      <c r="M5" s="3">
         <f t="shared" si="1"/>
-        <v>0.20125277777777484</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>5.031319444444371E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44163</v>
       </c>
@@ -717,69 +739,156 @@
       <c r="G6" s="2">
         <v>6</v>
       </c>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="H6" s="3">
+        <f>30+37/60+38/60^2</f>
+        <v>30.627222222222223</v>
+      </c>
+      <c r="I6" s="2">
+        <v>109531.86</v>
+      </c>
+      <c r="J6" s="3">
+        <f>I6/60^2</f>
+        <v>30.425516666666667</v>
+      </c>
+      <c r="K6">
+        <f>I6/F6/ROUNDUP(176*G6/D6,0)</f>
+        <v>547.65930000000003</v>
+      </c>
+      <c r="L6" s="3">
+        <f t="shared" si="2"/>
+        <v>0.2017055555555558</v>
+      </c>
+      <c r="M6" s="3">
+        <f t="shared" si="1"/>
+        <v>5.0426388888888951E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>44165</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>544</v>
+      </c>
+      <c r="E7">
+        <v>399</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2</v>
+      </c>
+      <c r="G7" s="2">
+        <v>3</v>
+      </c>
+      <c r="H7" s="3">
+        <f>1+1/60+53/60^2</f>
+        <v>1.0313888888888889</v>
+      </c>
+      <c r="I7" s="2">
+        <v>2259.6889999999999</v>
+      </c>
+      <c r="J7" s="3">
+        <f>I7/60^2</f>
+        <v>0.62769138888888887</v>
+      </c>
+      <c r="K7">
+        <f>I7/F7/ROUNDUP(176*G7/D7,0)</f>
+        <v>1129.8444999999999</v>
+      </c>
+      <c r="L7" s="3">
+        <f t="shared" si="2"/>
+        <v>0.40369750000000004</v>
+      </c>
+      <c r="M7" s="3">
+        <f t="shared" si="1"/>
+        <v>5.0462187500000005E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>44165</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" ref="D8" si="3">68*C8</f>
+        <v>544</v>
+      </c>
+      <c r="E8">
+        <v>399</v>
+      </c>
+      <c r="F8" s="2">
+        <v>50</v>
+      </c>
+      <c r="G8" s="2">
+        <v>15</v>
+      </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="J9" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9">
-        <f>K3</f>
-        <v>669.99479999999994</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="J10" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" s="3">
-        <f>L3</f>
-        <v>0.20070000000000121</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="5">
+        <f>K5</f>
+        <v>547.85744999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="3">
+        <f>AVERAGE(M2:M9)</f>
+        <v>5.0276035879629498E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
@@ -866,6 +975,14 @@
     <row r="37" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -877,7 +994,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -920,23 +1037,23 @@
       </c>
       <c r="C2" s="3">
         <f t="shared" ref="C2:C7" si="0">$C$14/B2</f>
-        <v>15.529411764705882</v>
+        <v>38.823529411764703</v>
       </c>
       <c r="D2">
         <f>ROUNDUP(C2,0)</f>
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="E2" s="3">
-        <f>D2*$C$17+$C$18</f>
-        <v>149.08843333333334</v>
+        <f>D2*$C$17+A2*$C$18</f>
+        <v>296.8063947858796</v>
       </c>
       <c r="F2" s="4">
         <f>E2*A2*0.8</f>
-        <v>119.27074666666668</v>
+        <v>237.44511582870371</v>
       </c>
       <c r="G2" s="4">
         <f t="shared" ref="G2:G10" si="1">F2*$C$24</f>
-        <v>954.16597333333345</v>
+        <v>759.82437065185195</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -949,23 +1066,23 @@
       </c>
       <c r="C3" s="3">
         <f t="shared" si="0"/>
-        <v>7.7647058823529411</v>
+        <v>19.411764705882351</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D7" si="3">ROUNDUP(C3,0)</f>
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E3" s="3">
-        <f t="shared" ref="E3:E10" si="4">D3*$C$17+$C$18</f>
-        <v>74.644566666666663</v>
+        <f t="shared" ref="E3:E10" si="4">D3*$C$17+A3*$C$18</f>
+        <v>152.28317707175924</v>
       </c>
       <c r="F3" s="4">
         <f t="shared" ref="F3:F7" si="5">E3*A3*0.8</f>
-        <v>119.43130666666667</v>
+        <v>243.65308331481481</v>
       </c>
       <c r="G3" s="4">
         <f t="shared" si="1"/>
-        <v>955.45045333333337</v>
+        <v>779.68986660740745</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -978,23 +1095,23 @@
       </c>
       <c r="C4" s="3">
         <f t="shared" si="0"/>
-        <v>5.1764705882352944</v>
+        <v>12.941176470588236</v>
       </c>
       <c r="D4">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E4" s="3">
         <f t="shared" si="4"/>
-        <v>56.033599999999993</v>
+        <v>99.069534357638872</v>
       </c>
       <c r="F4" s="4">
         <f t="shared" si="5"/>
-        <v>134.48063999999999</v>
+        <v>237.7668824583333</v>
       </c>
       <c r="G4" s="4">
         <f t="shared" si="1"/>
-        <v>1075.84512</v>
+        <v>760.85402386666658</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1007,23 +1124,23 @@
       </c>
       <c r="C5" s="3">
         <f t="shared" si="0"/>
-        <v>3.8823529411764706</v>
+        <v>9.7058823529411757</v>
       </c>
       <c r="D5">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E5" s="3">
         <f t="shared" si="4"/>
-        <v>37.422633333333337</v>
+        <v>76.292416643518507</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" si="5"/>
-        <v>119.75242666666668</v>
+        <v>244.13573325925924</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" si="1"/>
-        <v>958.01941333333343</v>
+        <v>781.23434642962957</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1036,23 +1153,23 @@
       </c>
       <c r="C6" s="3">
         <f t="shared" si="0"/>
-        <v>3.1058823529411765</v>
+        <v>7.7647058823529411</v>
       </c>
       <c r="D6">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E6" s="3">
         <f t="shared" si="4"/>
-        <v>37.422633333333337</v>
+        <v>61.124430179398139</v>
       </c>
       <c r="F6" s="4">
         <f t="shared" si="5"/>
-        <v>149.69053333333338</v>
+        <v>244.49772071759259</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="1"/>
-        <v>1197.524266666667</v>
+        <v>782.3927062962963</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1065,23 +1182,23 @@
       </c>
       <c r="C7" s="3">
         <f t="shared" si="0"/>
-        <v>2.5882352941176472</v>
+        <v>6.4705882352941178</v>
       </c>
       <c r="D7">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E7" s="3">
         <f t="shared" si="4"/>
-        <v>28.117149999999999</v>
+        <v>53.565574965277769</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" si="5"/>
-        <v>134.96232000000001</v>
+        <v>257.11475983333332</v>
       </c>
       <c r="G7" s="4">
         <f t="shared" si="1"/>
-        <v>1079.69856</v>
+        <v>822.76723146666666</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1094,23 +1211,23 @@
       </c>
       <c r="C8" s="3">
         <f t="shared" ref="C8:C10" si="7">$C$14/B8</f>
-        <v>2.2184873949579833</v>
+        <v>5.5462184873949578</v>
       </c>
       <c r="D8">
         <f t="shared" ref="D8:D10" si="8">ROUNDUP(C8,0)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E8" s="3">
         <f t="shared" si="4"/>
-        <v>28.117149999999999</v>
+        <v>46.006719751157405</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" ref="F8:F10" si="9">E8*A8*0.8</f>
-        <v>157.45604</v>
+        <v>257.63763060648148</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="1"/>
-        <v>1259.64832</v>
+        <v>824.44041794074076</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1123,23 +1240,23 @@
       </c>
       <c r="C9" s="3">
         <f t="shared" si="7"/>
-        <v>1.9411764705882353</v>
+        <v>4.8529411764705879</v>
       </c>
       <c r="D9">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E9" s="3">
         <f t="shared" si="4"/>
-        <v>18.811666666666667</v>
+        <v>38.447864537037027</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" si="9"/>
-        <v>120.39466666666668</v>
+        <v>246.066333037037</v>
       </c>
       <c r="G9" s="4">
         <f t="shared" si="1"/>
-        <v>963.15733333333344</v>
+        <v>787.41226571851848</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1152,23 +1269,23 @@
       </c>
       <c r="C10" s="3">
         <f t="shared" si="7"/>
-        <v>1.7254901960784315</v>
+        <v>4.3137254901960782</v>
       </c>
       <c r="D10">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E10" s="3">
         <f t="shared" si="4"/>
-        <v>18.811666666666667</v>
+        <v>38.498140572916661</v>
       </c>
       <c r="F10" s="4">
         <f t="shared" si="9"/>
-        <v>135.44400000000002</v>
+        <v>277.18661212499995</v>
       </c>
       <c r="G10" s="4">
         <f t="shared" si="1"/>
-        <v>1083.5520000000001</v>
+        <v>886.99715879999985</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1176,7 +1293,7 @@
         <v>23</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1185,11 +1302,11 @@
       </c>
       <c r="C14">
         <f>176*C13</f>
-        <v>1056</v>
+        <v>2640</v>
       </c>
       <c r="D14">
         <f>C14/2</f>
-        <v>528</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1197,8 +1314,8 @@
         <v>10</v>
       </c>
       <c r="C15">
-        <f>tacc!K9/60^2</f>
-        <v>0.18610966666666665</v>
+        <f>tacc!K11/60^2</f>
+        <v>0.15218262499999999</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1215,16 +1332,16 @@
       </c>
       <c r="C17">
         <f>C16*C15</f>
-        <v>9.3054833333333331</v>
+        <v>7.609131249999999</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18" s="3">
-        <f>tacc!L3</f>
-        <v>0.20070000000000121</v>
+        <f>tacc!K12</f>
+        <v>5.0276035879629498E-2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1233,7 +1350,7 @@
       </c>
       <c r="C22">
         <f>C16*C13</f>
-        <v>300</v>
+        <v>750</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1250,7 +1367,7 @@
       </c>
       <c r="C24">
         <f>C23/C22</f>
-        <v>8</v>
+        <v>3.2</v>
       </c>
     </row>
   </sheetData>

--- a/sim_tacc_James/development_log.xlsx
+++ b/sim_tacc_James/development_log.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>date</t>
   </si>
@@ -475,7 +475,7 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView zoomScale="158" zoomScaleNormal="158" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -559,11 +559,11 @@
         <v>2166.087</v>
       </c>
       <c r="J2" s="3">
-        <f>I2/60^2</f>
+        <f t="shared" ref="J2:J8" si="0">I2/60^2</f>
         <v>0.60169083333333329</v>
       </c>
       <c r="K2">
-        <f>I2/F2/ROUNDUP(176*G2/D2,0)</f>
+        <f t="shared" ref="K2:K8" si="1">I2/F2/ROUNDUP(176*G2/D2,0)</f>
         <v>1083.0435</v>
       </c>
       <c r="L2" s="3">
@@ -586,7 +586,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D7" si="0">68*C3</f>
+        <f t="shared" ref="D3:D7" si="2">68*C3</f>
         <v>272</v>
       </c>
       <c r="E3">
@@ -606,11 +606,11 @@
         <v>66999.48</v>
       </c>
       <c r="J3" s="3">
-        <f>I3/60^2</f>
+        <f t="shared" si="0"/>
         <v>18.610966666666666</v>
       </c>
       <c r="K3">
-        <f>I3/F3/ROUNDUP(176*G3/D3,0)</f>
+        <f t="shared" si="1"/>
         <v>669.99479999999994</v>
       </c>
       <c r="L3" s="3">
@@ -618,7 +618,7 @@
         <v>0.20070000000000121</v>
       </c>
       <c r="M3" s="3">
-        <f t="shared" ref="M3:M7" si="1">L3/C3</f>
+        <f t="shared" ref="M3:M8" si="3">L3/C3</f>
         <v>5.0175000000000303E-2</v>
       </c>
     </row>
@@ -633,7 +633,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>272</v>
       </c>
       <c r="E4">
@@ -653,19 +653,19 @@
         <v>66901.86</v>
       </c>
       <c r="J4" s="3">
-        <f>I4/60^2</f>
+        <f t="shared" si="0"/>
         <v>18.583850000000002</v>
       </c>
       <c r="K4">
-        <f>I4/F4/ROUNDUP(176*G4/D4,0)</f>
+        <f t="shared" si="1"/>
         <v>669.01859999999999</v>
       </c>
       <c r="L4" s="3">
-        <f t="shared" ref="L4:L7" si="2">H4-J4</f>
+        <f t="shared" ref="L4:L8" si="4">H4-J4</f>
         <v>0.2000388888888871</v>
       </c>
       <c r="M4" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.0009722222221775E-2</v>
       </c>
     </row>
@@ -680,7 +680,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>272</v>
       </c>
       <c r="E5">
@@ -700,19 +700,19 @@
         <v>109571.49</v>
       </c>
       <c r="J5" s="3">
-        <f>I5/60^2</f>
+        <f t="shared" si="0"/>
         <v>30.436525000000003</v>
       </c>
       <c r="K5" s="5">
-        <f>I5/F5/ROUNDUP(176*G5/D5,0)</f>
+        <f t="shared" si="1"/>
         <v>547.85744999999997</v>
       </c>
       <c r="L5" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.20125277777777484</v>
       </c>
       <c r="M5" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.031319444444371E-2</v>
       </c>
     </row>
@@ -727,7 +727,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>272</v>
       </c>
       <c r="E6">
@@ -747,19 +747,19 @@
         <v>109531.86</v>
       </c>
       <c r="J6" s="3">
-        <f>I6/60^2</f>
+        <f t="shared" si="0"/>
         <v>30.425516666666667</v>
       </c>
       <c r="K6">
-        <f>I6/F6/ROUNDUP(176*G6/D6,0)</f>
+        <f t="shared" si="1"/>
         <v>547.65930000000003</v>
       </c>
       <c r="L6" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.2017055555555558</v>
       </c>
       <c r="M6" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.0426388888888951E-2</v>
       </c>
     </row>
@@ -774,7 +774,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>544</v>
       </c>
       <c r="E7">
@@ -794,19 +794,19 @@
         <v>2259.6889999999999</v>
       </c>
       <c r="J7" s="3">
-        <f>I7/60^2</f>
+        <f t="shared" si="0"/>
         <v>0.62769138888888887</v>
       </c>
       <c r="K7">
-        <f>I7/F7/ROUNDUP(176*G7/D7,0)</f>
+        <f t="shared" si="1"/>
         <v>1129.8444999999999</v>
       </c>
       <c r="L7" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.40369750000000004</v>
       </c>
       <c r="M7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.0462187500000005E-2</v>
       </c>
     </row>
@@ -821,7 +821,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" ref="D8" si="3">68*C8</f>
+        <f t="shared" ref="D8" si="5">68*C8</f>
         <v>544</v>
       </c>
       <c r="E8">
@@ -833,15 +833,53 @@
       <c r="G8" s="2">
         <v>15</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="3">
+        <f>37+48/60+13/60^2</f>
+        <v>37.80361111111111</v>
+      </c>
+      <c r="I8" s="2">
+        <v>134645.35999999999</v>
+      </c>
+      <c r="J8" s="3">
+        <f t="shared" si="0"/>
+        <v>37.401488888888885</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>538.58143999999993</v>
+      </c>
+      <c r="L8" s="3">
+        <f t="shared" si="4"/>
+        <v>0.40212222222222493</v>
+      </c>
+      <c r="M8" s="3">
+        <f t="shared" si="3"/>
+        <v>5.0265277777778117E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="A9" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="2">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" ref="D9" si="6">68*C9</f>
+        <v>544</v>
+      </c>
+      <c r="E9">
+        <v>399</v>
+      </c>
+      <c r="F9" s="2">
+        <v>50</v>
+      </c>
+      <c r="G9" s="2">
+        <v>15</v>
+      </c>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -861,8 +899,8 @@
         <v>26</v>
       </c>
       <c r="K11" s="5">
-        <f>K5</f>
-        <v>547.85744999999997</v>
+        <f>K8</f>
+        <v>538.58143999999993</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -873,7 +911,7 @@
       </c>
       <c r="K12" s="3">
         <f>AVERAGE(M2:M9)</f>
-        <v>5.0276035879629498E-2</v>
+        <v>5.0274499007936443E-2</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -994,7 +1032,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1045,15 +1083,15 @@
       </c>
       <c r="E2" s="3">
         <f>D2*$C$17+A2*$C$18</f>
-        <v>296.8063947858796</v>
+        <v>291.78188783234123</v>
       </c>
       <c r="F2" s="4">
         <f>E2*A2*0.8</f>
-        <v>237.44511582870371</v>
+        <v>233.42551026587299</v>
       </c>
       <c r="G2" s="4">
         <f t="shared" ref="G2:G10" si="1">F2*$C$24</f>
-        <v>759.82437065185195</v>
+        <v>746.96163285079365</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1074,15 +1112,15 @@
       </c>
       <c r="E3" s="3">
         <f t="shared" ref="E3:E10" si="4">D3*$C$17+A3*$C$18</f>
-        <v>152.28317707175924</v>
+        <v>149.70650455357142</v>
       </c>
       <c r="F3" s="4">
         <f t="shared" ref="F3:F7" si="5">E3*A3*0.8</f>
-        <v>243.65308331481481</v>
+        <v>239.53040728571429</v>
       </c>
       <c r="G3" s="4">
         <f t="shared" si="1"/>
-        <v>779.68986660740745</v>
+        <v>766.49730331428577</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1103,15 +1141,15 @@
       </c>
       <c r="E4" s="3">
         <f t="shared" si="4"/>
-        <v>99.069534357638872</v>
+        <v>97.394694608134898</v>
       </c>
       <c r="F4" s="4">
         <f t="shared" si="5"/>
-        <v>237.7668824583333</v>
+        <v>233.74726705952378</v>
       </c>
       <c r="G4" s="4">
         <f t="shared" si="1"/>
-        <v>760.85402386666658</v>
+        <v>747.99125459047616</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1132,15 +1170,15 @@
       </c>
       <c r="E5" s="3">
         <f t="shared" si="4"/>
-        <v>76.292416643518507</v>
+        <v>75.004075773809518</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" si="5"/>
-        <v>244.13573325925924</v>
+        <v>240.01304247619046</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" si="1"/>
-        <v>781.23434642962957</v>
+        <v>768.04173592380948</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1161,15 +1199,15 @@
       </c>
       <c r="E6" s="3">
         <f t="shared" si="4"/>
-        <v>61.124430179398139</v>
+        <v>60.093754717261895</v>
       </c>
       <c r="F6" s="4">
         <f t="shared" si="5"/>
-        <v>244.49772071759259</v>
+        <v>240.37501886904758</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="1"/>
-        <v>782.3927062962963</v>
+        <v>769.20006038095232</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1190,15 +1228,15 @@
       </c>
       <c r="E7" s="3">
         <f t="shared" si="4"/>
-        <v>53.565574965277769</v>
+        <v>52.66373143849205</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" si="5"/>
-        <v>257.11475983333332</v>
+        <v>252.78591090476186</v>
       </c>
       <c r="G7" s="4">
         <f t="shared" si="1"/>
-        <v>822.76723146666666</v>
+        <v>808.91491489523798</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1219,15 +1257,15 @@
       </c>
       <c r="E8" s="3">
         <f t="shared" si="4"/>
-        <v>46.006719751157405</v>
+        <v>45.233708159722212</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" ref="F8:F10" si="9">E8*A8*0.8</f>
-        <v>257.63763060648148</v>
+        <v>253.30876569444442</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="1"/>
-        <v>824.44041794074076</v>
+        <v>810.58805022222214</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1248,15 +1286,15 @@
       </c>
       <c r="E9" s="3">
         <f t="shared" si="4"/>
-        <v>38.447864537037027</v>
+        <v>37.803684880952375</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" si="9"/>
-        <v>246.066333037037</v>
+        <v>241.94358323809521</v>
       </c>
       <c r="G9" s="4">
         <f t="shared" si="1"/>
-        <v>787.41226571851848</v>
+        <v>774.21946636190478</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1277,15 +1315,15 @@
       </c>
       <c r="E10" s="3">
         <f t="shared" si="4"/>
-        <v>38.498140572916661</v>
+        <v>37.853959379960315</v>
       </c>
       <c r="F10" s="4">
         <f t="shared" si="9"/>
-        <v>277.18661212499995</v>
+        <v>272.54850753571429</v>
       </c>
       <c r="G10" s="4">
         <f t="shared" si="1"/>
-        <v>886.99715879999985</v>
+        <v>872.15522411428583</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1315,7 +1353,7 @@
       </c>
       <c r="C15">
         <f>tacc!K11/60^2</f>
-        <v>0.15218262499999999</v>
+        <v>0.14960595555555553</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1332,7 +1370,7 @@
       </c>
       <c r="C17">
         <f>C16*C15</f>
-        <v>7.609131249999999</v>
+        <v>7.4802977777777766</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1341,7 +1379,7 @@
       </c>
       <c r="C18" s="3">
         <f>tacc!K12</f>
-        <v>5.0276035879629498E-2</v>
+        <v>5.0274499007936443E-2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">

--- a/sim_tacc_James/development_log.xlsx
+++ b/sim_tacc_James/development_log.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="19200" windowHeight="6435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="12210" windowHeight="6300"/>
   </bookViews>
   <sheets>
     <sheet name="tacc" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t>date</t>
   </si>
@@ -112,6 +112,21 @@
   </si>
   <si>
     <t>Overhead per node</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Sus</t>
+  </si>
+  <si>
+    <t>Core hours</t>
+  </si>
+  <si>
+    <t>Days</t>
+  </si>
+  <si>
+    <t>Years</t>
   </si>
 </sst>
 </file>
@@ -472,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView zoomScale="158" zoomScaleNormal="158" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" zoomScale="158" zoomScaleNormal="158" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -487,7 +502,7 @@
     <col min="12" max="12" width="8.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -527,8 +542,14 @@
       <c r="M1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44159</v>
       </c>
@@ -559,7 +580,7 @@
         <v>2166.087</v>
       </c>
       <c r="J2" s="3">
-        <f t="shared" ref="J2:J8" si="0">I2/60^2</f>
+        <f t="shared" ref="J2:J9" si="0">I2/60^2</f>
         <v>0.60169083333333329</v>
       </c>
       <c r="K2">
@@ -574,8 +595,16 @@
         <f>L2/C2</f>
         <v>5.0269722222222223E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" s="4">
+        <f>C2*H2*0.8</f>
+        <v>1.806</v>
+      </c>
+      <c r="O2" s="4">
+        <f>D2*J2</f>
+        <v>122.74493</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44159</v>
       </c>
@@ -621,8 +650,16 @@
         <f t="shared" ref="M3:M8" si="3">L3/C3</f>
         <v>5.0175000000000303E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" s="4">
+        <f t="shared" ref="N3:N9" si="4">C3*H3*0.8</f>
+        <v>60.19733333333334</v>
+      </c>
+      <c r="O3" s="4">
+        <f t="shared" ref="O3:O9" si="5">D3*J3</f>
+        <v>5062.1829333333335</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44160</v>
       </c>
@@ -661,15 +698,23 @@
         <v>669.01859999999999</v>
       </c>
       <c r="L4" s="3">
-        <f t="shared" ref="L4:L8" si="4">H4-J4</f>
+        <f t="shared" ref="L4:L8" si="6">H4-J4</f>
         <v>0.2000388888888871</v>
       </c>
       <c r="M4" s="3">
         <f t="shared" si="3"/>
         <v>5.0009722222221775E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" s="4">
+        <f t="shared" si="4"/>
+        <v>60.108444444444444</v>
+      </c>
+      <c r="O4" s="4">
+        <f t="shared" si="5"/>
+        <v>5054.8072000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44161</v>
       </c>
@@ -708,15 +753,23 @@
         <v>547.85744999999997</v>
       </c>
       <c r="L5" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.20125277777777484</v>
       </c>
       <c r="M5" s="3">
         <f t="shared" si="3"/>
         <v>5.031319444444371E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" s="4">
+        <f t="shared" si="4"/>
+        <v>98.040888888888901</v>
+      </c>
+      <c r="O5" s="4">
+        <f t="shared" si="5"/>
+        <v>8278.7348000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44163</v>
       </c>
@@ -755,15 +808,23 @@
         <v>547.65930000000003</v>
       </c>
       <c r="L6" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.2017055555555558</v>
       </c>
       <c r="M6" s="3">
         <f t="shared" si="3"/>
         <v>5.0426388888888951E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" s="4">
+        <f t="shared" si="4"/>
+        <v>98.007111111111115</v>
+      </c>
+      <c r="O6" s="4">
+        <f t="shared" si="5"/>
+        <v>8275.7405333333336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44165</v>
       </c>
@@ -802,15 +863,23 @@
         <v>1129.8444999999999</v>
       </c>
       <c r="L7" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.40369750000000004</v>
       </c>
       <c r="M7" s="3">
         <f t="shared" si="3"/>
         <v>5.0462187500000005E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" s="4">
+        <f t="shared" si="4"/>
+        <v>6.600888888888889</v>
+      </c>
+      <c r="O7" s="4">
+        <f t="shared" si="5"/>
+        <v>341.46411555555557</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44165</v>
       </c>
@@ -821,7 +890,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" ref="D8" si="5">68*C8</f>
+        <f t="shared" ref="D8" si="7">68*C8</f>
         <v>544</v>
       </c>
       <c r="E8">
@@ -849,15 +918,23 @@
         <v>538.58143999999993</v>
       </c>
       <c r="L8" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.40212222222222493</v>
       </c>
       <c r="M8" s="3">
         <f t="shared" si="3"/>
         <v>5.0265277777778117E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" s="4">
+        <f t="shared" si="4"/>
+        <v>241.94311111111111</v>
+      </c>
+      <c r="O8" s="4">
+        <f t="shared" si="5"/>
+        <v>20346.409955555555</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44167</v>
       </c>
@@ -868,7 +945,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" ref="D9" si="6">68*C9</f>
+        <f t="shared" ref="D9" si="8">68*C9</f>
         <v>544</v>
       </c>
       <c r="E9">
@@ -880,9 +957,39 @@
       <c r="G9" s="2">
         <v>15</v>
       </c>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H9" s="3">
+        <f>24+15+46/60+15/60^2</f>
+        <v>39.770833333333336</v>
+      </c>
+      <c r="I9" s="2">
+        <v>141739.45000000001</v>
+      </c>
+      <c r="J9" s="3">
+        <f t="shared" si="0"/>
+        <v>39.372069444444449</v>
+      </c>
+      <c r="K9">
+        <f t="shared" ref="K9" si="9">I9/F9/ROUNDUP(176*G9/D9,0)</f>
+        <v>566.95780000000002</v>
+      </c>
+      <c r="L9" s="3">
+        <f t="shared" ref="L9" si="10">H9-J9</f>
+        <v>0.3987638888888867</v>
+      </c>
+      <c r="M9" s="3">
+        <f t="shared" ref="M9" si="11">L9/C9</f>
+        <v>4.9845486111110837E-2</v>
+      </c>
+      <c r="N9" s="4">
+        <f t="shared" si="4"/>
+        <v>254.53333333333336</v>
+      </c>
+      <c r="O9" s="4">
+        <f t="shared" si="5"/>
+        <v>21418.405777777782</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -891,19 +998,33 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
+      <c r="H11" s="3">
+        <f>SUM(H2:H9)</f>
+        <v>178.21888888888893</v>
+      </c>
       <c r="J11" t="s">
         <v>26</v>
       </c>
       <c r="K11" s="5">
-        <f>K8</f>
-        <v>538.58143999999993</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <f>K9</f>
+        <v>566.95780000000002</v>
+      </c>
+      <c r="N11" s="4">
+        <f>SUM(N2:N9)</f>
+        <v>821.23711111111106</v>
+      </c>
+      <c r="O11" s="4">
+        <f>SUM(O2:O9)</f>
+        <v>68900.490245555557</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="J12" t="s">
@@ -911,22 +1032,36 @@
       </c>
       <c r="K12" s="3">
         <f>AVERAGE(M2:M9)</f>
-        <v>5.0274499007936443E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+        <v>5.0220872395833241E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13" t="s">
+        <v>32</v>
+      </c>
+      <c r="O13" s="4">
+        <f>O11/24</f>
+        <v>2870.8537602314814</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14" t="s">
+        <v>33</v>
+      </c>
+      <c r="O14" s="3">
+        <f>O13/365</f>
+        <v>7.865352767757483</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
@@ -1031,7 +1166,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -1083,15 +1218,15 @@
       </c>
       <c r="E2" s="3">
         <f>D2*$C$17+A2*$C$18</f>
-        <v>291.78188783234123</v>
+        <v>307.15236253906255</v>
       </c>
       <c r="F2" s="4">
         <f>E2*A2*0.8</f>
-        <v>233.42551026587299</v>
+        <v>245.72189003125004</v>
       </c>
       <c r="G2" s="4">
         <f t="shared" ref="G2:G10" si="1">F2*$C$24</f>
-        <v>746.96163285079365</v>
+        <v>786.31004810000013</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1112,15 +1247,15 @@
       </c>
       <c r="E3" s="3">
         <f t="shared" ref="E3:E10" si="4">D3*$C$17+A3*$C$18</f>
-        <v>149.70650455357142</v>
+        <v>157.58871952256945</v>
       </c>
       <c r="F3" s="4">
         <f t="shared" ref="F3:F7" si="5">E3*A3*0.8</f>
-        <v>239.53040728571429</v>
+        <v>252.14195123611114</v>
       </c>
       <c r="G3" s="4">
         <f t="shared" si="1"/>
-        <v>766.49730331428577</v>
+        <v>806.85424395555572</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1141,15 +1276,15 @@
       </c>
       <c r="E4" s="3">
         <f t="shared" si="4"/>
-        <v>97.394694608134898</v>
+        <v>102.51804317274306</v>
       </c>
       <c r="F4" s="4">
         <f t="shared" si="5"/>
-        <v>233.74726705952378</v>
+        <v>246.04330361458335</v>
       </c>
       <c r="G4" s="4">
         <f t="shared" si="1"/>
-        <v>747.99125459047616</v>
+        <v>787.33857156666681</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1170,15 +1305,15 @@
       </c>
       <c r="E5" s="3">
         <f t="shared" si="4"/>
-        <v>75.004075773809518</v>
+        <v>78.945022378472231</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" si="5"/>
-        <v>240.01304247619046</v>
+        <v>252.62407161111116</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" si="1"/>
-        <v>768.04173592380948</v>
+        <v>808.39702915555574</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1199,15 +1334,15 @@
       </c>
       <c r="E6" s="3">
         <f t="shared" si="4"/>
-        <v>60.093754717261895</v>
+        <v>63.246415473090288</v>
       </c>
       <c r="F6" s="4">
         <f t="shared" si="5"/>
-        <v>240.37501886904758</v>
+        <v>252.98566189236118</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="1"/>
-        <v>769.20006038095232</v>
+        <v>809.55411805555582</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1228,15 +1363,15 @@
       </c>
       <c r="E7" s="3">
         <f t="shared" si="4"/>
-        <v>52.66373143849205</v>
+        <v>55.422222456597233</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" si="5"/>
-        <v>252.78591090476186</v>
+        <v>266.02666779166674</v>
       </c>
       <c r="G7" s="4">
         <f t="shared" si="1"/>
-        <v>808.91491489523798</v>
+        <v>851.28533693333361</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1257,15 +1392,15 @@
       </c>
       <c r="E8" s="3">
         <f t="shared" si="4"/>
-        <v>45.233708159722212</v>
+        <v>47.598029440104177</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" ref="F8:F10" si="9">E8*A8*0.8</f>
-        <v>253.30876569444442</v>
+        <v>266.54896486458341</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="1"/>
-        <v>810.58805022222214</v>
+        <v>852.95668756666691</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1286,15 +1421,15 @@
       </c>
       <c r="E9" s="3">
         <f t="shared" si="4"/>
-        <v>37.803684880952375</v>
+        <v>39.773836423611115</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" si="9"/>
-        <v>241.94358323809521</v>
+        <v>254.55255311111114</v>
       </c>
       <c r="G9" s="4">
         <f t="shared" si="1"/>
-        <v>774.21946636190478</v>
+        <v>814.56816995555573</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1315,15 +1450,15 @@
       </c>
       <c r="E10" s="3">
         <f t="shared" si="4"/>
-        <v>37.853959379960315</v>
+        <v>39.824057296006949</v>
       </c>
       <c r="F10" s="4">
         <f t="shared" si="9"/>
-        <v>272.54850753571429</v>
+        <v>286.73321253125005</v>
       </c>
       <c r="G10" s="4">
         <f t="shared" si="1"/>
-        <v>872.15522411428583</v>
+        <v>917.54628010000022</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1353,7 +1488,7 @@
       </c>
       <c r="C15">
         <f>tacc!K11/60^2</f>
-        <v>0.14960595555555553</v>
+        <v>0.1574882777777778</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1370,7 +1505,7 @@
       </c>
       <c r="C17">
         <f>C16*C15</f>
-        <v>7.4802977777777766</v>
+        <v>7.8744138888888902</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1379,7 +1514,7 @@
       </c>
       <c r="C18" s="3">
         <f>tacc!K12</f>
-        <v>5.0274499007936443E-2</v>
+        <v>5.0220872395833241E-2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
